--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.marin\Desktop\BANCOLOMBIA\CREAR USUARIOS - API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EEB29-EF78-439F-AFE9-5F1D02D9F5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB3234-C95D-4B65-8D34-FA5EC855BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -36,18 +36,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>juan@gmail.com</t>
-  </si>
-  <si>
-    <t>juan</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>5b134a76-d717-4251-b303-db9ae8fdeeef</t>
-  </si>
-  <si>
     <t>defaultRoleId</t>
   </si>
   <si>
@@ -58,13 +46,34 @@
   </si>
   <si>
     <t>America/Bogota</t>
+  </si>
+  <si>
+    <t>user1@example.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>user2@example.com</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,14 +137,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -407,67 +432,84 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>234567</v>
+      </c>
+      <c r="E3" s="4">
+        <v>234567</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G4" s="4"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6211045E-F7E8-42A7-A3FD-597818D2D7E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>